--- a/errors_warnings.xlsx
+++ b/errors_warnings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>E1-1</t>
   </si>
@@ -31,6 +31,24 @@
   </si>
   <si>
     <t>Warnings</t>
+  </si>
+  <si>
+    <t>E1-2</t>
+  </si>
+  <si>
+    <t>Invalid InputType value.</t>
+  </si>
+  <si>
+    <t>E1-3</t>
+  </si>
+  <si>
+    <t>The callback data lacks at least one part of callback code.</t>
+  </si>
+  <si>
+    <t>E1-4</t>
+  </si>
+  <si>
+    <t>The first part of callback cannot be converted into an integer.</t>
   </si>
 </sst>
 </file>
@@ -405,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F3"/>
+  <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +456,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>

--- a/errors_warnings.xlsx
+++ b/errors_warnings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>E1-1</t>
   </si>
@@ -42,13 +42,7 @@
     <t>E1-3</t>
   </si>
   <si>
-    <t>The callback data lacks at least one part of callback code.</t>
-  </si>
-  <si>
-    <t>E1-4</t>
-  </si>
-  <si>
-    <t>The first part of callback cannot be converted into an integer.</t>
+    <t>In sign-in operation, a piece of data was received but none of the fields is blank.</t>
   </si>
 </sst>
 </file>
@@ -423,17 +417,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" customWidth="1"/>
+    <col min="3" max="3" width="55.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="51.85546875" style="1" customWidth="1"/>
   </cols>
@@ -460,24 +454,16 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/errors_warnings.xlsx
+++ b/errors_warnings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>E1-1</t>
   </si>
@@ -31,12 +31,6 @@
   </si>
   <si>
     <t>Warnings</t>
-  </si>
-  <si>
-    <t>E1-2</t>
-  </si>
-  <si>
-    <t>Invalid InputType value.</t>
   </si>
   <si>
     <t>E1-3</t>
@@ -420,7 +414,7 @@
   <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,20 +444,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/errors_warnings.xlsx
+++ b/errors_warnings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>E1-1</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>In sign-in operation, a piece of data was received but none of the fields is blank.</t>
+  </si>
+  <si>
+    <t>E1-2</t>
+  </si>
+  <si>
+    <t>The specified path is not a valid pages and wizards module.</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
   <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="B4:C4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,6 +450,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>

--- a/errors_warnings.xlsx
+++ b/errors_warnings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>E1-1</t>
   </si>
@@ -43,6 +43,34 @@
   </si>
   <si>
     <t>The specified path is not a valid pages and wizards module.</t>
+  </si>
+  <si>
+    <t>Conflicting pages:
+The 'cmd' has been already associated with a page in 'mod1' module while was trying to associated with a page in 'mod2' module.</t>
+  </si>
+  <si>
+    <t>E1-10: cmd, mod1, mod2</t>
+  </si>
+  <si>
+    <t>E1-11: cmd, mod1, mod2</t>
+  </si>
+  <si>
+    <t>Conflicting pages &amp; wizards:
+The 'cmd' has been already associated with a wizard in 'mod1' module while was trying to associated with a page in 'mod2' module.</t>
+  </si>
+  <si>
+    <t>E1-12: cmd, mod1, mod2</t>
+  </si>
+  <si>
+    <t>Conflicting pages &amp; wizards:
+The 'cmd' has been already associated with a page in 'mod1' module while was trying to associated with a wizard in 'mod2' module.</t>
+  </si>
+  <si>
+    <t>E1-13: cmd, mod1, mod2</t>
+  </si>
+  <si>
+    <t>Conflicting wizards
+The 'cmd' has been already associated with a wizard in 'mod1' module while was trying to associated with a wizard in 'mod2' module.</t>
   </si>
 </sst>
 </file>
@@ -417,17 +445,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="51.85546875" style="1" customWidth="1"/>
   </cols>
@@ -464,6 +492,38 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/errors_warnings.xlsx
+++ b/errors_warnings.xlsx
@@ -39,9 +39,6 @@
     <t>In sign-in operation, a piece of data was received but none of the fields is blank.</t>
   </si>
   <si>
-    <t>E1-2</t>
-  </si>
-  <si>
     <t>The specified path is not a valid pages and wizards module.</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   <si>
     <t>Conflicting wizards
 The 'cmd' has been already associated with a wizard in 'mod1' module while was trying to associated with a wizard in 'mod2' module.</t>
+  </si>
+  <si>
+    <t>E1-2: module_path</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,10 +480,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -496,34 +496,34 @@
     </row>
     <row r="6" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/errors_warnings.xlsx
+++ b/errors_warnings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>E1-1</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>E1-2: module_path</t>
+  </si>
+  <si>
+    <t>E1-4</t>
+  </si>
+  <si>
+    <t>An unkown error while reading an MO file.</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F9"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,35 +500,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/errors_warnings.xlsx
+++ b/errors_warnings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>E1-1</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>An unkown error while reading an MO file.</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>The argument to UserSpace.AppentOutput is neither of type Message nor WizardRes.</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C15" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,6 +546,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>

--- a/errors_warnings.xlsx
+++ b/errors_warnings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>E1-1</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>The argument to UserSpace.AppentOutput is neither of type Message nor WizardRes.</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>No language file was found.</t>
   </si>
 </sst>
 </file>
@@ -457,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C14:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,6 +560,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>

--- a/errors_warnings.xlsx
+++ b/errors_warnings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>E1-1</t>
   </si>
@@ -28,15 +28,6 @@
   </si>
   <si>
     <t>Errors</t>
-  </si>
-  <si>
-    <t>Warnings</t>
-  </si>
-  <si>
-    <t>E1-3</t>
-  </si>
-  <si>
-    <t>In sign-in operation, a piece of data was received but none of the fields is blank.</t>
   </si>
   <si>
     <t>The specified path is not a valid pages and wizards module.</t>
@@ -70,15 +61,6 @@
 The 'cmd' has been already associated with a wizard in 'mod1' module while was trying to associated with a wizard in 'mod2' module.</t>
   </si>
   <si>
-    <t>E1-2: module_path</t>
-  </si>
-  <si>
-    <t>E1-4</t>
-  </si>
-  <si>
-    <t>An unkown error while reading an MO file.</t>
-  </si>
-  <si>
     <t>E6</t>
   </si>
   <si>
@@ -89,13 +71,40 @@
   </si>
   <si>
     <t>No language file was found.</t>
+  </si>
+  <si>
+    <t>E4: domain, language, osError</t>
+  </si>
+  <si>
+    <t>An unkown error while reading the 'domain' MO file for the 'language' language. 'osError' explains the error.</t>
+  </si>
+  <si>
+    <t>E2: module_path</t>
+  </si>
+  <si>
+    <t>E8-1</t>
+  </si>
+  <si>
+    <t>E3-1</t>
+  </si>
+  <si>
+    <t>In sign-in operation, a TextInput was received but none of the fields is blank.</t>
+  </si>
+  <si>
+    <t>E3-2</t>
+  </si>
+  <si>
+    <t>In sign-in operation, the ReplyText was fired but the last input for this user in not TextInput.</t>
+  </si>
+  <si>
+    <t>Sign-in wizard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,16 +120,8 @@
       <charset val="178"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="178"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,13 +133,8 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -146,28 +142,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -178,13 +158,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +456,7 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="51.85546875" style="1" customWidth="1"/>
   </cols>
@@ -483,10 +466,9 @@
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="F2"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -498,80 +480,97 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/errors_warnings.xlsx
+++ b/errors_warnings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>E1-1</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>Sign-in wizard</t>
+  </si>
+  <si>
+    <t>E3-3</t>
+  </si>
+  <si>
+    <t>In sign-in operation, the ReplyCallback was fired but the last input for this user in not TextInput.</t>
+  </si>
+  <si>
+    <t>E3-4: cb</t>
+  </si>
+  <si>
+    <t>Invalid callback code.</t>
   </si>
 </sst>
 </file>
@@ -155,11 +167,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -445,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+      <selection activeCell="D5" sqref="D5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,17 +468,17 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="51.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2"/>
       <c r="F2"/>
     </row>
@@ -508,69 +520,87 @@
     </row>
     <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D5:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/errors_warnings.xlsx
+++ b/errors_warnings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>E1-1</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>Invalid callback code.</t>
+  </si>
+  <si>
+    <t>Messages &amp; MO files</t>
+  </si>
+  <si>
+    <t>E4-1: bale_id, domain, lang</t>
+  </si>
+  <si>
+    <t>E4-2: bale_id, msg_id, domain, lang</t>
+  </si>
+  <si>
+    <t>The specified 'msg_id' does not exist in the 'domain' of the 'lang' language ('bale_id' originated this error).</t>
+  </si>
+  <si>
+    <t>The sprcified 'domain' does not exist in the 'lang' folder ('bale_id' originated this error).</t>
   </si>
 </sst>
 </file>
@@ -167,14 +182,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -457,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D8"/>
+      <selection activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,17 +483,17 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="51.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2"/>
       <c r="F2"/>
     </row>
@@ -543,64 +558,86 @@
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/errors_warnings.xlsx
+++ b/errors_warnings.xlsx
@@ -73,12 +73,6 @@
     <t>No language file was found.</t>
   </si>
   <si>
-    <t>E4: domain, language, osError</t>
-  </si>
-  <si>
-    <t>An unkown error while reading the 'domain' MO file for the 'language' language. 'osError' explains the error.</t>
-  </si>
-  <si>
     <t>E2: module_path</t>
   </si>
   <si>
@@ -125,6 +119,12 @@
   </si>
   <si>
     <t>The sprcified 'domain' does not exist in the 'lang' folder ('bale_id' originated this error).</t>
+  </si>
+  <si>
+    <t>E4-3: bale_id, domain, language</t>
+  </si>
+  <si>
+    <t>An unkown error while reading the 'domain' MO file for the 'language' language. 'osError' explains the error. If the user ID is None, it means the API does not access to the user ID.</t>
   </si>
 </sst>
 </file>
@@ -182,11 +182,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -483,17 +483,17 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="51.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2"/>
       <c r="F2"/>
     </row>
@@ -507,7 +507,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -515,68 +515,68 @@
     </row>
     <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -630,7 +630,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/errors_warnings.xlsx
+++ b/errors_warnings.xlsx
@@ -67,12 +67,6 @@
     <t>The argument to UserSpace.AppentOutput is neither of type Message nor WizardRes.</t>
   </si>
   <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>No language file was found.</t>
-  </si>
-  <si>
     <t>E2: module_path</t>
   </si>
   <si>
@@ -125,6 +119,12 @@
   </si>
   <si>
     <t>An unkown error while reading the 'domain' MO file for the 'language' language. 'osError' explains the error. If the user ID is None, it means the API does not access to the user ID.</t>
+  </si>
+  <si>
+    <t>No language was found.</t>
+  </si>
+  <si>
+    <t>E4-4: bale_id</t>
   </si>
 </sst>
 </file>
@@ -174,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -184,6 +184,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -474,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,11 +492,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2"/>
       <c r="F2"/>
     </row>
@@ -507,7 +510,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -515,122 +518,123 @@
     </row>
     <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/errors_warnings.xlsx
+++ b/errors_warnings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>E1-1</t>
   </si>
@@ -76,24 +76,15 @@
     <t>E3-1</t>
   </si>
   <si>
-    <t>In sign-in operation, a TextInput was received but none of the fields is blank.</t>
-  </si>
-  <si>
     <t>E3-2</t>
   </si>
   <si>
-    <t>In sign-in operation, the ReplyText was fired but the last input for this user in not TextInput.</t>
-  </si>
-  <si>
     <t>Sign-in wizard</t>
   </si>
   <si>
     <t>E3-3</t>
   </si>
   <si>
-    <t>In sign-in operation, the ReplyCallback was fired but the last input for this user in not TextInput.</t>
-  </si>
-  <si>
     <t>E3-4: cb</t>
   </si>
   <si>
@@ -125,18 +116,56 @@
   </si>
   <si>
     <t>E4-4: bale_id</t>
+  </si>
+  <si>
+    <t>E5-1: bale_id</t>
+  </si>
+  <si>
+    <t>Language wizard</t>
+  </si>
+  <si>
+    <t>In language wizard, the ReplyText was fired but the first input for this user in not TextInput.</t>
+  </si>
+  <si>
+    <t>In Language wizard the ReplyCallback was fired but the first input for this user in not CbInput.</t>
+  </si>
+  <si>
+    <t>In sign-in wizard a TextInput was received but none of the fields is blank.</t>
+  </si>
+  <si>
+    <t>In sign-in wizard the ReplyText was fired but the irst input for this user in not TextInput.</t>
+  </si>
+  <si>
+    <t>In sign-in wizard the ReplyCallback was fired but the first input for this user in not CbInput.</t>
+  </si>
+  <si>
+    <t>E5-2: bale_id</t>
+  </si>
+  <si>
+    <t>In Language wizard, the ReplyCallback was fired with invalid callback code.</t>
+  </si>
+  <si>
+    <t>E5-3: bale_id, cb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +187,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -170,11 +211,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -188,14 +231,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -475,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,131 +571,161 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
